--- a/second-order/February1876.xlsx
+++ b/second-order/February1876.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24020"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/GitHub/weather-rescue/second-order/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8512" documentId="13_ncr:1_{2B08D627-5D7C-4136-AC9C-F7A48612B57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF4D91C5-FA1C-41EE-AD98-29981E86559E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4057308-8D9D-2348-9DAC-53D6D286D9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="14" activeTab="12" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="2200" yWindow="1140" windowWidth="29040" windowHeight="15840" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Glenalmond" sheetId="15" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Markree Castle" sheetId="9" r:id="rId14"/>
     <sheet name="Birr Castle" sheetId="8" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2347" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2348" uniqueCount="71">
   <si>
     <t>Barometer</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>ESE</t>
-  </si>
-  <si>
-    <t>30/031</t>
   </si>
   <si>
     <t>S</t>
@@ -270,12 +267,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000;[Red]0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,9 +500,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -532,6 +527,15 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,12 +552,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -872,53 +870,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88ECFB51-BB71-451A-B602-B8838E07BC1A}">
   <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -983,7 +981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
@@ -1048,7 +1046,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
@@ -1243,7 +1241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1371,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1438,7 +1436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1503,7 +1501,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1568,7 +1566,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
@@ -1581,8 +1579,8 @@
       <c r="D13" s="7">
         <v>10</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>32</v>
+      <c r="E13" s="6">
+        <v>30.030999999999999</v>
       </c>
       <c r="F13" s="8">
         <v>30.035</v>
@@ -1633,7 +1631,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1698,7 +1696,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
@@ -1763,7 +1761,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +1826,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1889,11 +1887,11 @@
       <c r="T17" s="7">
         <v>10</v>
       </c>
-      <c r="U17" s="24">
+      <c r="U17" s="23">
         <v>0.72</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -1958,7 +1956,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -2023,7 +2021,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -2067,7 +2065,7 @@
         <v>84</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P20" s="7">
         <v>1</v>
@@ -2088,7 +2086,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>19</v>
       </c>
@@ -2138,7 +2136,7 @@
         <v>1</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R21" s="8">
         <v>2</v>
@@ -2153,7 +2151,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
@@ -2218,7 +2216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -2283,7 +2281,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>19</v>
       </c>
@@ -2327,7 +2325,7 @@
         <v>96</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P24" s="7">
         <v>1</v>
@@ -2348,7 +2346,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -2413,7 +2411,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>19</v>
       </c>
@@ -2457,7 +2455,7 @@
         <v>87</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P26" s="7">
         <v>5</v>
@@ -2478,7 +2476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
@@ -2543,7 +2541,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>19</v>
       </c>
@@ -2587,7 +2585,7 @@
         <v>99</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P28" s="7">
         <v>2</v>
@@ -2608,7 +2606,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
@@ -2652,7 +2650,7 @@
         <v>99</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P29" s="7">
         <v>1</v>
@@ -2673,7 +2671,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>19</v>
       </c>
@@ -2717,7 +2715,7 @@
         <v>99</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P30" s="7">
         <v>1</v>
@@ -2738,7 +2736,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>19</v>
       </c>
@@ -2782,7 +2780,7 @@
         <v>95</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P31" s="7">
         <v>1</v>
@@ -2803,7 +2801,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
@@ -2853,7 +2851,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R32" s="8">
         <v>1</v>
@@ -2868,12 +2866,12 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.678000000000001</v>
@@ -2919,7 +2917,7 @@
       <c r="T33" s="14">
         <v>6.8</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="22">
         <v>5.0599999999999996</v>
       </c>
     </row>
@@ -2945,49 +2943,49 @@
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3052,9 +3050,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -3096,7 +3094,7 @@
         <v>77</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
@@ -3117,9 +3115,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -3182,9 +3180,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -3226,7 +3224,7 @@
         <v>92</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7">
         <v>1</v>
@@ -3244,12 +3242,12 @@
         <v>9</v>
       </c>
       <c r="U6" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -3312,9 +3310,9 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -3377,9 +3375,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -3442,9 +3440,9 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -3507,9 +3505,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -3572,9 +3570,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -3637,9 +3635,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -3702,9 +3700,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -3767,9 +3765,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -3832,9 +3830,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -3897,9 +3895,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -3962,9 +3960,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -4006,7 +4004,7 @@
         <v>89</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="7">
         <v>9</v>
@@ -4027,9 +4025,9 @@
         <v>0.34499999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -4092,9 +4090,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -4142,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R20" s="8">
         <v>7</v>
@@ -4157,9 +4155,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -4201,13 +4199,13 @@
         <v>86</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7">
         <v>8</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R21" s="8">
         <v>7</v>
@@ -4222,9 +4220,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -4266,7 +4264,7 @@
         <v>92</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P22" s="7">
         <v>8</v>
@@ -4287,9 +4285,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -4352,9 +4350,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -4396,7 +4394,7 @@
         <v>93</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7">
         <v>6</v>
@@ -4417,9 +4415,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -4461,7 +4459,7 @@
         <v>86</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P25" s="7">
         <v>6</v>
@@ -4482,9 +4480,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -4526,7 +4524,7 @@
         <v>79</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P26" s="7">
         <v>5</v>
@@ -4547,9 +4545,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -4612,9 +4610,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -4656,13 +4654,13 @@
         <v>87</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="7">
         <v>2</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="8">
         <v>5</v>
@@ -4677,9 +4675,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -4727,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R29" s="8">
         <v>9</v>
@@ -4742,9 +4740,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -4786,7 +4784,7 @@
         <v>77</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7">
         <v>3</v>
@@ -4807,9 +4805,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -4857,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R31" s="8">
         <v>3</v>
@@ -4872,9 +4870,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -4922,7 +4920,7 @@
         <v>5</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R32" s="8">
         <v>2</v>
@@ -4937,12 +4935,12 @@
         <v>0.152</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.835000000000001</v>
@@ -4962,10 +4960,10 @@
       <c r="J33" s="14">
         <v>45.4</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="30">
         <v>0.23</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="29">
         <v>0.23</v>
       </c>
       <c r="M33" s="12">
@@ -5013,49 +5011,49 @@
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5120,9 +5118,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -5170,7 +5168,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R4" s="8">
         <v>1</v>
@@ -5185,9 +5183,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -5250,9 +5248,9 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -5315,9 +5313,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -5380,9 +5378,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -5445,9 +5443,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -5510,9 +5508,9 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -5554,7 +5552,7 @@
         <v>76</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7">
         <v>6</v>
@@ -5575,9 +5573,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -5619,7 +5617,7 @@
         <v>90</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7">
         <v>4</v>
@@ -5640,9 +5638,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -5690,7 +5688,7 @@
         <v>2</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R12" s="8">
         <v>2</v>
@@ -5705,9 +5703,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -5749,7 +5747,7 @@
         <v>75</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P13" s="7">
         <v>2</v>
@@ -5770,9 +5768,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -5814,13 +5812,13 @@
         <v>80</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P14" s="7">
         <v>1</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R14" s="8">
         <v>2</v>
@@ -5835,9 +5833,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -5879,13 +5877,13 @@
         <v>79</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P15" s="7">
         <v>1</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="8">
         <v>1</v>
@@ -5900,9 +5898,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -5944,7 +5942,7 @@
         <v>97</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7">
         <v>2</v>
@@ -5965,9 +5963,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -6030,9 +6028,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -6095,9 +6093,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -6142,13 +6140,13 @@
         <v>23</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S19" s="7">
         <v>10</v>
@@ -6160,9 +6158,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -6213,7 +6211,7 @@
         <v>23</v>
       </c>
       <c r="R20" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S20" s="7">
         <v>10</v>
@@ -6225,9 +6223,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -6272,13 +6270,13 @@
         <v>21</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S21" s="7">
         <v>10</v>
@@ -6290,9 +6288,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -6337,7 +6335,7 @@
         <v>23</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>25</v>
@@ -6355,9 +6353,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -6405,7 +6403,7 @@
         <v>3</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R23" s="8">
         <v>1</v>
@@ -6416,13 +6414,13 @@
       <c r="T23" s="7">
         <v>10</v>
       </c>
-      <c r="U23" s="24">
+      <c r="U23" s="23">
         <v>0.61</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -6473,7 +6471,7 @@
         <v>21</v>
       </c>
       <c r="R24" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S24" s="7">
         <v>10</v>
@@ -6485,9 +6483,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -6538,7 +6536,7 @@
         <v>21</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S25" s="7">
         <v>10</v>
@@ -6550,9 +6548,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -6615,9 +6613,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -6665,7 +6663,7 @@
         <v>5</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R27" s="8">
         <v>1</v>
@@ -6680,9 +6678,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -6730,7 +6728,7 @@
         <v>3</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="8">
         <v>4</v>
@@ -6745,9 +6743,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -6798,7 +6796,7 @@
         <v>21</v>
       </c>
       <c r="R29" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S29" s="7">
         <v>1</v>
@@ -6810,9 +6808,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -6875,9 +6873,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -6940,9 +6938,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -7005,12 +7003,12 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.853999999999999</v>
@@ -7030,10 +7028,10 @@
       <c r="J33" s="14">
         <v>43.8</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="30">
         <v>0.23100000000000001</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="29">
         <v>0.23200000000000001</v>
       </c>
       <c r="M33" s="12">
@@ -7048,7 +7046,7 @@
       </c>
       <c r="Q33" s="13"/>
       <c r="R33" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S33" s="12">
         <v>8</v>
@@ -7056,7 +7054,7 @@
       <c r="T33" s="14">
         <v>7.9</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="22">
         <v>3.11</v>
       </c>
     </row>
@@ -7079,60 +7077,60 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -7197,9 +7195,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -7262,9 +7260,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -7327,9 +7325,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -7392,9 +7390,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -7457,9 +7455,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -7522,9 +7520,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -7587,9 +7585,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -7652,9 +7650,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -7717,9 +7715,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -7734,7 +7732,7 @@
         <v>29.974</v>
       </c>
       <c r="F12" s="8">
-        <v>29.004000000000001</v>
+        <v>29.994</v>
       </c>
       <c r="G12" s="7">
         <v>29.6</v>
@@ -7782,9 +7780,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -7847,9 +7845,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -7912,9 +7910,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -7974,12 +7972,12 @@
         <v>10</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -8021,7 +8019,7 @@
         <v>97</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P16" s="7">
         <v>2</v>
@@ -8042,9 +8040,9 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -8055,8 +8053,8 @@
       <c r="D17" s="7">
         <v>14</v>
       </c>
-      <c r="E17" s="20">
-        <v>29726</v>
+      <c r="E17" s="31">
+        <v>29.725999999999999</v>
       </c>
       <c r="F17" s="8">
         <v>29.684999999999999</v>
@@ -8107,9 +8105,9 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -8172,9 +8170,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -8233,13 +8231,13 @@
       <c r="T19" s="7">
         <v>10</v>
       </c>
-      <c r="U19" s="24">
+      <c r="U19" s="23">
         <v>1.64</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -8302,9 +8300,9 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -8346,13 +8344,13 @@
         <v>100</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7">
         <v>7</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R21" s="8">
         <v>6</v>
@@ -8367,9 +8365,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -8381,7 +8379,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="6">
-        <v>20.527999999999999</v>
+        <v>29.527999999999999</v>
       </c>
       <c r="F22" s="8">
         <v>29.591000000000001</v>
@@ -8432,9 +8430,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -8476,7 +8474,7 @@
         <v>100</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P23" s="7">
         <v>4</v>
@@ -8497,9 +8495,9 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -8562,9 +8560,9 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -8627,9 +8625,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -8692,9 +8690,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -8757,9 +8755,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -8801,13 +8799,13 @@
         <v>100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="7">
         <v>3</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="8">
         <v>2</v>
@@ -8822,9 +8820,9 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -8887,9 +8885,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -8952,9 +8950,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -9017,9 +9015,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -9082,12 +9080,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.920999999999999</v>
@@ -9133,7 +9131,7 @@
       <c r="T33" s="14">
         <v>8</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="22">
         <v>11.82</v>
       </c>
     </row>
@@ -9155,53 +9153,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439A7F5-7EB0-4803-AE7D-1F1798F594DA}">
   <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D27" workbookViewId="0">
+    <sheetView topLeftCell="D27" workbookViewId="0">
       <selection activeCell="U33" sqref="U33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -9266,9 +9264,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -9310,7 +9308,7 @@
         <v>96</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7">
         <v>3</v>
@@ -9331,9 +9329,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -9396,9 +9394,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -9461,9 +9459,9 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -9526,9 +9524,9 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -9570,7 +9568,7 @@
         <v>63</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P8" s="7">
         <v>3</v>
@@ -9591,9 +9589,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -9656,9 +9654,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -9721,9 +9719,9 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -9786,9 +9784,9 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -9851,9 +9849,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -9895,7 +9893,7 @@
         <v>97</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7">
         <v>2</v>
@@ -9916,9 +9914,9 @@
         <v>0.13800000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -9981,9 +9979,9 @@
         <v>0.182</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -10025,13 +10023,13 @@
         <v>83</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7">
         <v>3</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R15" s="8">
         <v>3</v>
@@ -10046,9 +10044,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -10090,7 +10088,7 @@
         <v>87</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7">
         <v>4</v>
@@ -10111,9 +10109,9 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -10176,9 +10174,9 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -10241,9 +10239,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -10306,9 +10304,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -10371,9 +10369,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -10415,7 +10413,7 @@
         <v>93</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P21" s="7">
         <v>4</v>
@@ -10436,9 +10434,9 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -10497,13 +10495,13 @@
       <c r="T22" s="7">
         <v>10</v>
       </c>
-      <c r="U22" s="24">
+      <c r="U22" s="23">
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -10566,9 +10564,9 @@
         <v>0.35599999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -10631,9 +10629,9 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -10696,9 +10694,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -10761,9 +10759,9 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -10826,9 +10824,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -10870,13 +10868,13 @@
         <v>95</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="7">
         <v>4</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="8">
         <v>5</v>
@@ -10891,9 +10889,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -10956,9 +10954,9 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -11021,9 +11019,9 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -11086,9 +11084,9 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -11151,12 +11149,12 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.933</v>
@@ -11202,7 +11200,7 @@
       <c r="T33" s="14">
         <v>6.7</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="22">
         <v>3.07</v>
       </c>
     </row>
@@ -11226,59 +11224,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U25" sqref="U25"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -11343,9 +11341,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -11387,16 +11385,16 @@
         <v>90</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7">
         <v>4</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S4" s="7">
         <v>10</v>
@@ -11408,9 +11406,9 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -11473,9 +11471,9 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -11523,7 +11521,7 @@
         <v>3</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R6" s="8">
         <v>5</v>
@@ -11538,9 +11536,9 @@
         <v>0.495</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -11603,9 +11601,9 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -11668,9 +11666,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -11733,9 +11731,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -11798,9 +11796,9 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -11842,7 +11840,7 @@
         <v>87</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7">
         <v>2</v>
@@ -11863,9 +11861,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -11907,13 +11905,13 @@
         <v>96</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" s="7">
         <v>2</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R12" s="8">
         <v>2</v>
@@ -11928,9 +11926,9 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -11993,9 +11991,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -12058,9 +12056,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -12102,13 +12100,13 @@
         <v>93</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7">
         <v>1</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R15" s="8">
         <v>1</v>
@@ -12123,9 +12121,9 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -12167,7 +12165,7 @@
         <v>88</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7">
         <v>4</v>
@@ -12188,9 +12186,9 @@
         <v>6.3E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -12232,13 +12230,13 @@
         <v>97</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7">
         <v>2</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R17" s="8">
         <v>4</v>
@@ -12253,9 +12251,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -12267,7 +12265,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="6">
-        <v>20.123000000000001</v>
+        <v>29.123000000000001</v>
       </c>
       <c r="F18" s="8">
         <v>29.21</v>
@@ -12303,7 +12301,7 @@
         <v>3</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R18" s="8">
         <v>4</v>
@@ -12318,9 +12316,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -12368,7 +12366,7 @@
         <v>2</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R19" s="8">
         <v>1</v>
@@ -12383,9 +12381,9 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -12427,13 +12425,13 @@
         <v>95</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7">
         <v>1</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R20" s="8">
         <v>2</v>
@@ -12448,9 +12446,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -12492,7 +12490,7 @@
         <v>93</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P21" s="7">
         <v>1</v>
@@ -12513,9 +12511,9 @@
         <v>0.33800000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -12578,9 +12576,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -12628,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R23" s="8">
         <v>5</v>
@@ -12643,9 +12641,9 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -12708,9 +12706,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -12769,13 +12767,13 @@
       <c r="T25" s="7">
         <v>10</v>
       </c>
-      <c r="U25" s="24">
+      <c r="U25" s="23">
         <v>0.89</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -12817,7 +12815,7 @@
         <v>63</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" s="7">
         <v>2</v>
@@ -12838,9 +12836,9 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -12882,13 +12880,13 @@
         <v>93</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7">
         <v>1</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R27" s="8">
         <v>3</v>
@@ -12903,9 +12901,9 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -12947,7 +12945,7 @@
         <v>94</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="7">
         <v>1</v>
@@ -12968,9 +12966,9 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -13012,13 +13010,13 @@
         <v>92</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" s="7">
         <v>4</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R29" s="8">
         <v>1</v>
@@ -13033,9 +13031,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -13077,7 +13075,7 @@
         <v>83</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" s="7">
         <v>1</v>
@@ -13098,9 +13096,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -13142,13 +13140,13 @@
         <v>95</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P31" s="7">
         <v>1</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R31" s="8">
         <v>3</v>
@@ -13163,9 +13161,9 @@
         <v>0.16500000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -13207,13 +13205,13 @@
         <v>85</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P32" s="7">
         <v>2</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R32" s="8">
         <v>3</v>
@@ -13228,12 +13226,12 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.667000000000002</v>
@@ -13303,60 +13301,60 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O24" sqref="O24"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -13421,9 +13419,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -13465,13 +13463,13 @@
         <v>96</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="7">
         <v>0.5</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R4" s="8">
         <v>0.5</v>
@@ -13486,9 +13484,9 @@
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -13530,7 +13528,7 @@
         <v>89</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P5" s="7">
         <v>1</v>
@@ -13539,7 +13537,7 @@
         <v>24</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S5" s="7">
         <v>4</v>
@@ -13551,9 +13549,9 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -13601,10 +13599,10 @@
         <v>0.5</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S6" s="7">
         <v>8</v>
@@ -13616,9 +13614,9 @@
         <v>5.8999999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -13681,9 +13679,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -13725,7 +13723,7 @@
         <v>88</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7">
         <v>0.5</v>
@@ -13746,9 +13744,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -13811,9 +13809,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -13855,13 +13853,13 @@
         <v>94</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7">
         <v>0.5</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R10" s="8">
         <v>0.5</v>
@@ -13876,9 +13874,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -13941,9 +13939,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -13985,13 +13983,13 @@
         <v>96</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P12" s="7">
         <v>0.5</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R12" s="8">
         <v>0.5</v>
@@ -14006,9 +14004,9 @@
         <v>1.004</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -14056,7 +14054,7 @@
         <v>0.5</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R13" s="8">
         <v>0.5</v>
@@ -14071,9 +14069,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -14115,7 +14113,7 @@
         <v>88</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P14" s="7">
         <v>1</v>
@@ -14136,9 +14134,9 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -14150,7 +14148,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="6">
-        <v>30.779</v>
+        <v>29.779</v>
       </c>
       <c r="F15" s="8">
         <v>29.687000000000001</v>
@@ -14180,7 +14178,7 @@
         <v>98</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7">
         <v>0.5</v>
@@ -14201,9 +14199,9 @@
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -14215,7 +14213,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="6">
-        <v>30.414999999999999</v>
+        <v>29.414999999999999</v>
       </c>
       <c r="F16" s="8">
         <v>29.32</v>
@@ -14245,7 +14243,7 @@
         <v>92</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7">
         <v>1</v>
@@ -14266,9 +14264,9 @@
         <v>0.184</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -14280,7 +14278,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="6">
-        <v>30.478999999999999</v>
+        <v>29.478999999999999</v>
       </c>
       <c r="F17" s="8">
         <v>29.225000000000001</v>
@@ -14316,9 +14314,9 @@
         <v>0.5</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="28">
+        <v>33</v>
+      </c>
+      <c r="R17" s="27">
         <v>0.5</v>
       </c>
       <c r="S17" s="7">
@@ -14331,9 +14329,9 @@
         <v>0.28899999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -14345,7 +14343,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="6">
-        <v>30.210999999999999</v>
+        <v>29.210999999999999</v>
       </c>
       <c r="F18" s="8">
         <v>29.332000000000001</v>
@@ -14375,7 +14373,7 @@
         <v>87</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P18" s="7">
         <v>0.5</v>
@@ -14384,7 +14382,7 @@
         <v>23</v>
       </c>
       <c r="R18" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S18" s="7">
         <v>4</v>
@@ -14396,9 +14394,9 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -14410,7 +14408,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="6">
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="F19" s="8">
         <v>29.608000000000001</v>
@@ -14443,7 +14441,7 @@
         <v>25</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>21</v>
@@ -14461,9 +14459,9 @@
         <v>0.22700000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -14475,7 +14473,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="6">
-        <v>30.477</v>
+        <v>29.477</v>
       </c>
       <c r="F20" s="8">
         <v>29.446999999999999</v>
@@ -14505,7 +14503,7 @@
         <v>95</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P20" s="7">
         <v>0.5</v>
@@ -14513,7 +14511,7 @@
       <c r="Q20" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="28">
+      <c r="R20" s="27">
         <v>0.5</v>
       </c>
       <c r="S20" s="7">
@@ -14526,9 +14524,9 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -14540,7 +14538,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="6">
-        <v>30.007000000000001</v>
+        <v>29.007000000000001</v>
       </c>
       <c r="F21" s="8">
         <v>29.027999999999999</v>
@@ -14573,13 +14571,13 @@
         <v>23</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S21" s="7">
         <v>5</v>
@@ -14591,9 +14589,9 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -14605,7 +14603,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="6">
-        <v>30.398</v>
+        <v>29.398</v>
       </c>
       <c r="F22" s="8">
         <v>29.529</v>
@@ -14635,7 +14633,7 @@
         <v>92</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="7">
         <v>0.5</v>
@@ -14656,9 +14654,9 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -14670,7 +14668,7 @@
         <v>20</v>
       </c>
       <c r="E23" s="6">
-        <v>30.567</v>
+        <v>29.567</v>
       </c>
       <c r="F23" s="8">
         <v>29.600999999999999</v>
@@ -14700,16 +14698,16 @@
         <v>94</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P23" s="7">
         <v>0.5</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S23" s="7">
         <v>10</v>
@@ -14721,9 +14719,9 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -14735,7 +14733,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="6">
-        <v>30.454000000000001</v>
+        <v>29.454000000000001</v>
       </c>
       <c r="F24" s="8">
         <v>29.550999999999998</v>
@@ -14765,7 +14763,7 @@
         <v>93</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7">
         <v>0.5</v>
@@ -14774,7 +14772,7 @@
         <v>24</v>
       </c>
       <c r="R24" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S24" s="7">
         <v>10</v>
@@ -14786,9 +14784,9 @@
         <v>0.36699999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -14800,7 +14798,7 @@
         <v>22</v>
       </c>
       <c r="E25" s="6">
-        <v>30.614999999999998</v>
+        <v>29.614999999999998</v>
       </c>
       <c r="F25" s="8">
         <v>29.518000000000001</v>
@@ -14839,7 +14837,7 @@
         <v>24</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S25" s="7">
         <v>1</v>
@@ -14851,9 +14849,9 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -14865,7 +14863,7 @@
         <v>23</v>
       </c>
       <c r="E26" s="6">
-        <v>20.82</v>
+        <v>29.82</v>
       </c>
       <c r="F26" s="8">
         <v>30.07</v>
@@ -14895,13 +14893,13 @@
         <v>85</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R26" s="8">
         <v>1</v>
@@ -14916,9 +14914,9 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -14960,7 +14958,7 @@
         <v>95</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7">
         <v>0.5</v>
@@ -14981,9 +14979,9 @@
         <v>0.34899999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -15025,7 +15023,7 @@
         <v>95</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="7">
         <v>0.5</v>
@@ -15046,9 +15044,9 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -15092,14 +15090,14 @@
       <c r="O29" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="16">
-        <v>43862</v>
+      <c r="P29" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="R29" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S29" s="7">
         <v>3</v>
@@ -15111,9 +15109,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -15155,16 +15153,16 @@
         <v>84</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" s="16">
-        <v>43891</v>
+        <v>38</v>
+      </c>
+      <c r="P30" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>25</v>
       </c>
       <c r="R30" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S30" s="7">
         <v>1</v>
@@ -15176,9 +15174,9 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -15226,7 +15224,7 @@
         <v>0.5</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R31" s="8">
         <v>1</v>
@@ -15241,9 +15239,9 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -15285,16 +15283,16 @@
         <v>88</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P32" s="7">
         <v>1</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R32" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S32" s="7">
         <v>5</v>
@@ -15306,12 +15304,12 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.715</v>
@@ -15334,7 +15332,7 @@
       <c r="K33" s="12">
         <v>0.23599999999999999</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L33" s="28">
         <v>0.23</v>
       </c>
       <c r="M33" s="12">
@@ -15382,59 +15380,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -15481,7 +15479,7 @@
         <v>15</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>17</v>
@@ -15499,9 +15497,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -15512,7 +15510,7 @@
       <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>30.02</v>
       </c>
       <c r="F4" s="8">
@@ -15564,9 +15562,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -15629,9 +15627,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -15694,9 +15692,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -15738,7 +15736,7 @@
         <v>85</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7">
         <v>2</v>
@@ -15759,9 +15757,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -15824,9 +15822,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -15889,9 +15887,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -15954,9 +15952,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -15998,7 +15996,7 @@
         <v>90</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7">
         <v>1</v>
@@ -16019,9 +16017,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -16084,9 +16082,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -16149,9 +16147,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -16199,7 +16197,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R14" s="8">
         <v>1</v>
@@ -16214,9 +16212,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -16279,9 +16277,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -16344,9 +16342,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -16409,9 +16407,9 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -16474,9 +16472,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -16539,9 +16537,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -16604,9 +16602,9 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -16669,9 +16667,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -16719,7 +16717,7 @@
         <v>4</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R22" s="8">
         <v>4</v>
@@ -16734,9 +16732,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -16784,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R23" s="8">
         <v>1</v>
@@ -16799,9 +16797,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -16860,13 +16858,13 @@
       <c r="T24" s="7">
         <v>10</v>
       </c>
-      <c r="U24" s="24">
+      <c r="U24" s="23">
         <v>1.84</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -16929,9 +16927,9 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -16979,7 +16977,7 @@
         <v>5</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R26" s="8">
         <v>3</v>
@@ -16994,9 +16992,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -17038,7 +17036,7 @@
         <v>83</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P27" s="7">
         <v>3</v>
@@ -17059,9 +17057,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -17103,7 +17101,7 @@
         <v>100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P28" s="7">
         <v>1</v>
@@ -17124,9 +17122,9 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -17189,9 +17187,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -17254,9 +17252,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -17304,7 +17302,7 @@
         <v>5</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R31" s="8">
         <v>2</v>
@@ -17319,9 +17317,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -17338,7 +17336,7 @@
       <c r="F32" s="8">
         <v>29.734000000000002</v>
       </c>
-      <c r="G32" s="26">
+      <c r="G32" s="25">
         <v>46.8</v>
       </c>
       <c r="H32" s="7">
@@ -17384,12 +17382,12 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.722000000000001</v>
@@ -17435,7 +17433,7 @@
       <c r="T33" s="14">
         <v>7.9</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="22">
         <v>8.91</v>
       </c>
     </row>
@@ -17461,59 +17459,59 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E4" sqref="E4"/>
       <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
-      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -17578,9 +17576,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -17622,13 +17620,13 @@
         <v>90</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7">
         <v>4</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="8">
         <v>4</v>
@@ -17643,9 +17641,9 @@
         <v>0.17499999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -17708,9 +17706,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -17773,9 +17771,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -17817,13 +17815,13 @@
         <v>92</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7">
         <v>2</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R7" s="8">
         <v>2</v>
@@ -17838,9 +17836,9 @@
         <v>0.20899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -17903,9 +17901,9 @@
         <v>0.16400000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -17968,9 +17966,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -18018,7 +18016,7 @@
         <v>4</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R10" s="8">
         <v>2</v>
@@ -18033,9 +18031,9 @@
         <v>0.13700000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -18083,7 +18081,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R11" s="8">
         <v>1</v>
@@ -18098,9 +18096,9 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -18142,7 +18140,7 @@
         <v>96</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P12" s="7">
         <v>1</v>
@@ -18163,9 +18161,9 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -18228,9 +18226,9 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -18293,9 +18291,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -18358,9 +18356,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -18423,9 +18421,9 @@
         <v>8.6999999999999994E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -18467,13 +18465,13 @@
         <v>97</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7">
         <v>1</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R17" s="8">
         <v>2</v>
@@ -18488,9 +18486,9 @@
         <v>0.42199999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -18553,9 +18551,9 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -18618,9 +18616,9 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -18683,9 +18681,9 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -18748,9 +18746,9 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -18813,9 +18811,9 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -18878,9 +18876,9 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -18922,7 +18920,7 @@
         <v>89</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P24" s="7">
         <v>3</v>
@@ -18943,9 +18941,9 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -19008,9 +19006,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -19058,7 +19056,7 @@
         <v>5</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R26" s="8">
         <v>3</v>
@@ -19073,9 +19071,9 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -19138,9 +19136,9 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -19182,13 +19180,13 @@
         <v>100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="7">
         <v>2</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R28" s="8">
         <v>3</v>
@@ -19203,9 +19201,9 @@
         <v>0.35399999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -19268,9 +19266,9 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -19333,9 +19331,9 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -19398,9 +19396,9 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -19463,12 +19461,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.744</v>
@@ -19538,60 +19536,60 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -19656,9 +19654,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -19700,7 +19698,7 @@
         <v>93</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7">
         <v>3</v>
@@ -19721,9 +19719,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -19737,7 +19735,7 @@
       <c r="E5" s="6">
         <v>30.1</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>30.23</v>
       </c>
       <c r="G5" s="7">
@@ -19786,9 +19784,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -19851,9 +19849,9 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -19916,9 +19914,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -19981,9 +19979,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -20025,7 +20023,7 @@
         <v>86</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="7">
         <v>1</v>
@@ -20046,9 +20044,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -20111,9 +20109,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -20176,9 +20174,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -20241,9 +20239,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -20306,9 +20304,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -20371,9 +20369,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -20436,9 +20434,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -20480,7 +20478,7 @@
         <v>89</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P16" s="7">
         <v>2</v>
@@ -20501,9 +20499,9 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -20551,7 +20549,7 @@
         <v>1</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R17" s="8">
         <v>1</v>
@@ -20562,13 +20560,13 @@
       <c r="T17" s="7">
         <v>10</v>
       </c>
-      <c r="U17" s="24">
+      <c r="U17" s="23">
         <v>0.67</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -20631,9 +20629,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -20696,9 +20694,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -20761,9 +20759,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -20811,7 +20809,7 @@
         <v>6</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R21" s="8">
         <v>4</v>
@@ -20826,9 +20824,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -20840,7 +20838,7 @@
         <v>19</v>
       </c>
       <c r="E22" s="6">
-        <v>20.285</v>
+        <v>29.285</v>
       </c>
       <c r="F22" s="8">
         <v>29.52</v>
@@ -20891,9 +20889,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -20935,7 +20933,7 @@
         <v>87</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P23" s="7">
         <v>1</v>
@@ -20956,9 +20954,9 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -20969,7 +20967,7 @@
       <c r="D24" s="7">
         <v>21</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="24">
         <v>29.61</v>
       </c>
       <c r="F24" s="8">
@@ -21021,9 +21019,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -21086,9 +21084,9 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -21103,7 +21101,7 @@
         <v>29.533999999999999</v>
       </c>
       <c r="F26" s="8">
-        <v>28.846</v>
+        <v>29.846</v>
       </c>
       <c r="G26" s="7">
         <v>41.9</v>
@@ -21151,9 +21149,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -21216,9 +21214,9 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -21260,7 +21258,7 @@
         <v>98</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P28" s="7">
         <v>2</v>
@@ -21281,9 +21279,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -21346,9 +21344,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -21411,9 +21409,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -21476,9 +21474,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -21541,12 +21539,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.756</v>
@@ -21592,7 +21590,7 @@
       <c r="T33" s="14">
         <v>7.4</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="22">
         <v>6.19</v>
       </c>
     </row>
@@ -21616,60 +21614,60 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -21734,9 +21732,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -21778,13 +21776,13 @@
         <v>100</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" s="7">
         <v>1</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="8">
         <v>3</v>
@@ -21799,9 +21797,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -21864,9 +21862,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -21908,7 +21906,7 @@
         <v>85</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7">
         <v>2</v>
@@ -21929,9 +21927,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -21979,7 +21977,7 @@
         <v>2</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R7" s="8">
         <v>3</v>
@@ -21994,9 +21992,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -22038,13 +22036,13 @@
         <v>91</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" s="7">
         <v>4</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R8" s="8">
         <v>5</v>
@@ -22059,9 +22057,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -22103,13 +22101,13 @@
         <v>91</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="7">
         <v>2</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R9" s="17">
         <v>43892</v>
@@ -22124,9 +22122,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -22168,13 +22166,13 @@
         <v>99</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7">
         <v>3</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R10" s="8">
         <v>1</v>
@@ -22189,9 +22187,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -22233,7 +22231,7 @@
         <v>94</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7">
         <v>1</v>
@@ -22254,9 +22252,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -22301,7 +22299,7 @@
         <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>29</v>
@@ -22319,9 +22317,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -22372,7 +22370,7 @@
         <v>30</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S13" s="7">
         <v>10</v>
@@ -22384,9 +22382,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -22434,10 +22432,10 @@
         <v>0</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S14" s="7">
         <v>10</v>
@@ -22449,9 +22447,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -22496,7 +22494,7 @@
         <v>24</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>22</v>
@@ -22514,9 +22512,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -22575,13 +22573,13 @@
       <c r="T16" s="7">
         <v>10</v>
       </c>
-      <c r="U16" s="24">
+      <c r="U16" s="23">
         <v>0.34</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -22623,13 +22621,13 @@
         <v>99</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P17" s="7">
         <v>2</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="8">
         <v>3</v>
@@ -22644,9 +22642,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -22688,7 +22686,7 @@
         <v>86</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="16">
         <v>43955</v>
@@ -22709,9 +22707,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -22774,9 +22772,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -22839,9 +22837,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -22892,7 +22890,7 @@
         <v>21</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S21" s="7">
         <v>10</v>
@@ -22904,9 +22902,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -22969,9 +22967,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -23013,13 +23011,13 @@
         <v>97</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R23" s="8">
         <v>2</v>
@@ -23034,9 +23032,9 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -23048,7 +23046,7 @@
         <v>21</v>
       </c>
       <c r="E24" s="6">
-        <v>20.678999999999998</v>
+        <v>29.678999999999998</v>
       </c>
       <c r="F24" s="8">
         <v>29.58</v>
@@ -23087,7 +23085,7 @@
         <v>23</v>
       </c>
       <c r="R24" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S24" s="7">
         <v>10</v>
@@ -23099,9 +23097,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -23164,9 +23162,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -23217,7 +23215,7 @@
         <v>26</v>
       </c>
       <c r="R26" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S26" s="7">
         <v>9</v>
@@ -23229,9 +23227,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -23294,9 +23292,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -23338,7 +23336,7 @@
         <v>98</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P28" s="16">
         <v>43892</v>
@@ -23359,9 +23357,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -23424,9 +23422,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -23477,7 +23475,7 @@
         <v>24</v>
       </c>
       <c r="R30" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S30" s="7">
         <v>10</v>
@@ -23489,9 +23487,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -23554,9 +23552,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -23619,12 +23617,12 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.782</v>
@@ -23670,7 +23668,7 @@
       <c r="T33" s="14">
         <v>7.1</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="22">
         <v>2.5099999999999998</v>
       </c>
     </row>
@@ -23692,53 +23690,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80476FA-4182-4264-80A8-C7112CFAE3A7}">
   <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -23803,9 +23801,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -23820,7 +23818,7 @@
         <v>30.024999999999999</v>
       </c>
       <c r="F4" s="8">
-        <v>20.92</v>
+        <v>29.92</v>
       </c>
       <c r="G4" s="7">
         <v>45</v>
@@ -23868,9 +23866,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -23933,9 +23931,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -23998,9 +23996,9 @@
         <v>0.105</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -24063,9 +24061,9 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -24128,9 +24126,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -24178,7 +24176,7 @@
         <v>2</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R9" s="8">
         <v>2</v>
@@ -24193,9 +24191,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -24258,9 +24256,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -24323,9 +24321,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -24388,9 +24386,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -24453,9 +24451,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -24518,9 +24516,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -24583,9 +24581,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -24648,9 +24646,9 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -24698,7 +24696,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R17" s="8">
         <v>7</v>
@@ -24713,9 +24711,9 @@
         <v>0.60699999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -24778,9 +24776,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -24843,9 +24841,9 @@
         <v>0.155</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -24908,9 +24906,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -24973,9 +24971,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -25038,9 +25036,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -25103,9 +25101,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -25147,7 +25145,7 @@
         <v>88</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="7">
         <v>6</v>
@@ -25168,9 +25166,9 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -25233,9 +25231,9 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -25298,9 +25296,9 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -25363,9 +25361,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -25428,9 +25426,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -25493,9 +25491,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -25558,9 +25556,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -25623,9 +25621,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -25688,12 +25686,12 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.798999999999999</v>
@@ -25716,7 +25714,7 @@
       <c r="K33" s="12">
         <v>0.224</v>
       </c>
-      <c r="L33" s="36">
+      <c r="L33" s="29">
         <v>0.22</v>
       </c>
       <c r="M33" s="12">
@@ -25760,53 +25758,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8F88C9-B23F-4F2A-A610-B51C3EC0FD98}">
   <dimension ref="A2:U33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -25871,9 +25869,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -25921,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="8">
         <v>2</v>
@@ -25936,9 +25934,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="1" customFormat="1">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -26001,9 +25999,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -26066,9 +26064,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="1" customFormat="1">
+    <row r="7" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -26131,9 +26129,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -26181,7 +26179,7 @@
         <v>2</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R8" s="8">
         <v>4</v>
@@ -26196,9 +26194,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="1" customFormat="1">
+    <row r="9" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -26240,13 +26238,13 @@
         <v>81</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P9" s="7">
         <v>3</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R9" s="8">
         <v>2</v>
@@ -26261,9 +26259,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -26305,13 +26303,13 @@
         <v>84</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P10" s="7">
         <v>2</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R10" s="8">
         <v>2</v>
@@ -26326,9 +26324,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="1" customFormat="1">
+    <row r="11" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -26376,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R11" s="8">
         <v>1</v>
@@ -26391,9 +26389,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -26456,9 +26454,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="1" customFormat="1">
+    <row r="13" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -26500,7 +26498,7 @@
         <v>98</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P13" s="7">
         <v>1</v>
@@ -26521,9 +26519,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -26586,9 +26584,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="1" customFormat="1">
+    <row r="15" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -26651,9 +26649,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -26665,7 +26663,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="6">
-        <v>28.712</v>
+        <v>29.712</v>
       </c>
       <c r="F16" s="8">
         <v>29.516999999999999</v>
@@ -26716,9 +26714,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="1" customFormat="1">
+    <row r="17" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -26781,9 +26779,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -26846,9 +26844,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -26911,9 +26909,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -26976,9 +26974,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="1" customFormat="1">
+    <row r="21" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -27041,9 +27039,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -27085,7 +27083,7 @@
         <v>81</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P22" s="7">
         <v>3</v>
@@ -27106,9 +27104,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="1" customFormat="1">
+    <row r="23" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -27167,13 +27165,13 @@
       <c r="T23" s="7">
         <v>10</v>
       </c>
-      <c r="U23" s="24">
+      <c r="U23" s="23">
         <v>0.31</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -27236,9 +27234,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -27301,9 +27299,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -27366,9 +27364,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="1" customFormat="1">
+    <row r="27" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -27431,9 +27429,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="1" customFormat="1">
+    <row r="28" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -27475,7 +27473,7 @@
         <v>90</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="7">
         <v>3</v>
@@ -27496,9 +27494,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="1" customFormat="1">
+    <row r="29" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -27561,9 +27559,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -27626,9 +27624,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="1" customFormat="1">
+    <row r="31" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -27691,9 +27689,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -27756,12 +27754,12 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.789000000000001</v>
@@ -27807,7 +27805,7 @@
       <c r="T33" s="14">
         <v>6.3</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="22">
         <v>2.36</v>
       </c>
     </row>
@@ -27830,60 +27828,60 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -27948,9 +27946,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -27992,7 +27990,7 @@
         <v>98</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="7">
         <v>2</v>
@@ -28013,9 +28011,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -28078,9 +28076,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -28143,9 +28141,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -28208,9 +28206,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -28273,9 +28271,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -28338,9 +28336,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -28403,9 +28401,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -28468,9 +28466,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -28485,7 +28483,7 @@
         <v>29.873999999999999</v>
       </c>
       <c r="F12" s="8">
-        <v>20.887</v>
+        <v>29.887</v>
       </c>
       <c r="G12" s="7">
         <v>33.700000000000003</v>
@@ -28533,9 +28531,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -28577,7 +28575,7 @@
         <v>96</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P13" s="7">
         <v>1</v>
@@ -28598,9 +28596,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -28663,9 +28661,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -28728,9 +28726,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -28745,7 +28743,7 @@
         <v>29.588000000000001</v>
       </c>
       <c r="F16" s="8">
-        <v>20.414000000000001</v>
+        <v>29.414000000000001</v>
       </c>
       <c r="G16" s="7">
         <v>34.6</v>
@@ -28778,7 +28776,7 @@
         <v>3</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R16" s="8">
         <v>1</v>
@@ -28793,9 +28791,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -28854,13 +28852,13 @@
       <c r="T17" s="7">
         <v>10</v>
       </c>
-      <c r="U17" s="24">
+      <c r="U17" s="23">
         <v>0.98</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -28923,9 +28921,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -28988,9 +28986,9 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -29053,9 +29051,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -29118,9 +29116,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -29183,9 +29181,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -29248,9 +29246,9 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -29313,9 +29311,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -29378,9 +29376,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -29443,9 +29441,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -29508,9 +29506,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -29552,7 +29550,7 @@
         <v>95</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P28" s="7">
         <v>2</v>
@@ -29573,9 +29571,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -29638,9 +29636,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -29703,9 +29701,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -29768,9 +29766,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -29833,12 +29831,12 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.774000000000001</v>
@@ -29884,7 +29882,7 @@
       <c r="T33" s="14">
         <v>7.1</v>
       </c>
-      <c r="U33" s="23">
+      <c r="U33" s="22">
         <v>5.69</v>
       </c>
     </row>
@@ -29908,60 +29906,60 @@
   <dimension ref="A2:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U23" sqref="U23"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="8.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" s="2" customFormat="1">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="32" t="s">
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="30" t="s">
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="30" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="34" t="s">
+      <c r="N2" s="33"/>
+      <c r="O2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="30" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="31"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1">
+    <row r="3" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -30026,9 +30024,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="7" customFormat="1">
+    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="7">
         <v>1876</v>
@@ -30043,7 +30041,7 @@
         <v>30.198</v>
       </c>
       <c r="F4" s="8">
-        <v>390.08699999999999</v>
+        <v>30.087</v>
       </c>
       <c r="G4" s="7">
         <v>41.5</v>
@@ -30070,13 +30068,13 @@
         <v>92</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R4" s="8">
         <v>1</v>
@@ -30091,9 +30089,9 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
@@ -30144,7 +30142,7 @@
         <v>26</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S5" s="7">
         <v>0</v>
@@ -30156,9 +30154,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="7">
         <v>1876</v>
@@ -30221,9 +30219,9 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="7">
         <v>1876</v>
@@ -30274,7 +30272,7 @@
         <v>26</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" s="7">
         <v>0</v>
@@ -30286,9 +30284,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="7">
         <v>1876</v>
@@ -30339,7 +30337,7 @@
         <v>26</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S8" s="7">
         <v>10</v>
@@ -30351,9 +30349,9 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="7">
         <v>1876</v>
@@ -30416,9 +30414,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="7">
         <v>1876</v>
@@ -30469,7 +30467,7 @@
         <v>30</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S10" s="7">
         <v>10</v>
@@ -30481,9 +30479,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="7">
         <v>1876</v>
@@ -30546,9 +30544,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="7">
         <v>1876</v>
@@ -30593,7 +30591,7 @@
         <v>28</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>22</v>
@@ -30611,9 +30609,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="7">
         <v>1876</v>
@@ -30658,7 +30656,7 @@
         <v>29</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>22</v>
@@ -30676,9 +30674,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7">
         <v>1876</v>
@@ -30741,9 +30739,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="7">
         <v>1876</v>
@@ -30806,9 +30804,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="7">
         <v>1876</v>
@@ -30853,7 +30851,7 @@
         <v>29</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>22</v>
@@ -30871,9 +30869,9 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" s="7">
         <v>1876</v>
@@ -30924,7 +30922,7 @@
         <v>23</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S17" s="7">
         <v>6</v>
@@ -30936,9 +30934,9 @@
         <v>0.34799999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="7">
         <v>1876</v>
@@ -31001,9 +30999,9 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19" s="7">
         <v>1876</v>
@@ -31066,9 +31064,9 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7">
         <v>1876</v>
@@ -31113,7 +31111,7 @@
         <v>23</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>25</v>
@@ -31131,9 +31129,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="7">
         <v>1876</v>
@@ -31178,13 +31176,13 @@
         <v>23</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S21" s="7">
         <v>4</v>
@@ -31196,9 +31194,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="7">
         <v>1876</v>
@@ -31243,7 +31241,7 @@
         <v>25</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>23</v>
@@ -31261,9 +31259,9 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="7">
         <v>1876</v>
@@ -31308,13 +31306,13 @@
         <v>29</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R23" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S23" s="7">
         <v>10</v>
@@ -31326,9 +31324,9 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24" s="7">
         <v>1876</v>
@@ -31373,13 +31371,13 @@
         <v>23</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="R24" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S24" s="7">
         <v>10</v>
@@ -31391,9 +31389,9 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25" s="7">
         <v>1876</v>
@@ -31438,13 +31436,13 @@
         <v>25</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S25" s="7">
         <v>3</v>
@@ -31456,9 +31454,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="7">
         <v>1876</v>
@@ -31503,7 +31501,7 @@
         <v>25</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>26</v>
@@ -31521,9 +31519,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="7">
         <v>1876</v>
@@ -31568,7 +31566,7 @@
         <v>26</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>26</v>
@@ -31586,9 +31584,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="7">
         <v>1876</v>
@@ -31630,16 +31628,16 @@
         <v>96</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P28" s="7">
         <v>1</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S28" s="7">
         <v>10</v>
@@ -31651,9 +31649,9 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="7">
         <v>1876</v>
@@ -31716,9 +31714,9 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="7">
         <v>1876</v>
@@ -31760,7 +31758,7 @@
         <v>93</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P30" s="7">
         <v>1</v>
@@ -31769,7 +31767,7 @@
         <v>26</v>
       </c>
       <c r="R30" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S30" s="7">
         <v>10</v>
@@ -31781,9 +31779,9 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31" s="7">
         <v>1876</v>
@@ -31846,9 +31844,9 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="7">
         <v>1876</v>
@@ -31893,13 +31891,13 @@
         <v>23</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>26</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S32" s="7">
         <v>10</v>
@@ -31911,12 +31909,12 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="13">
         <v>29.834</v>
@@ -32254,6 +32252,34 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-28693</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-28693</Url>
+      <Description>H7Q62YT2XCZT-908671883-28693</Description>
+    </_dlc_DocIdUrl>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
     <Name>Document ID Generator</Name>
@@ -32302,46 +32328,50 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-28693</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-28693</Url>
-      <Description>H7Q62YT2XCZT-908671883-28693</Description>
-    </_dlc_DocIdUrl>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B97B652B-B1D1-47CC-9892-FD095DED6691}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B97B652B-B1D1-47CC-9892-FD095DED6691}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F42C16C-AA1C-4EEA-A34D-83F822A0A59B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
+    <ds:schemaRef ds:uri="502a79df-4f52-4757-ac2f-753e065f4c93"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F42C16C-AA1C-4EEA-A34D-83F822A0A59B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>